--- a/GTNH(含魔改汉化)/mod汉化进度.xlsx
+++ b/GTNH(含魔改汉化)/mod汉化进度.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B53569-2D43-4E98-B1C2-FD1D876D171E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341BC5F2-D772-44D8-B8B5-A6EAE49706A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mod汉化状态" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="454">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1378,6 +1378,50 @@
   </si>
   <si>
     <t>Tec Tech 3.3.8</t>
+  </si>
+  <si>
+    <t>New Mods</t>
+  </si>
+  <si>
+    <t>Bartworks 0.3.21</t>
+  </si>
+  <si>
+    <t>Core Mod 1.6.07</t>
+  </si>
+  <si>
+    <t>Electromagictools 1.2.7.5</t>
+  </si>
+  <si>
+    <t>Gregtech 5.09.33.10</t>
+  </si>
+  <si>
+    <t>GT++ 1.7.03.89</t>
+  </si>
+  <si>
+    <t>IFU 1.5</t>
+  </si>
+  <si>
+    <t>Open Computers 1.7.4.1265</t>
+  </si>
+  <si>
+    <t>Open Security 1.0.117</t>
+  </si>
+  <si>
+    <t>Special Mobs 3.3.1</t>
+  </si>
+  <si>
+    <t>Tec Tech 3.3.9</t>
+  </si>
+  <si>
+    <t>Witching Gadgets 1.2.9h</t>
+  </si>
+  <si>
+    <t>2.0.6.8更新日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waila Plugins 0.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1775,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
@@ -3308,10 +3352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G380"/>
+  <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3319,25 +3363,26 @@
     <col min="1" max="1" width="47.375" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="6" max="6" width="29.625" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>377</v>
       </c>
@@ -3349,8 +3394,12 @@
         <v>434</v>
       </c>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3362,8 +3411,12 @@
         <v>360</v>
       </c>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3371,8 +3424,10 @@
       <c r="D8" s="5"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3388,8 +3443,14 @@
       <c r="G9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -3401,8 +3462,10 @@
       <c r="G10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3414,8 +3477,10 @@
       <c r="G11" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -3429,8 +3494,12 @@
       <c r="G12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3442,8 +3511,10 @@
       <c r="G13" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -3453,8 +3524,14 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3464,8 +3541,14 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -3475,8 +3558,14 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I16" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3486,8 +3575,14 @@
       <c r="D17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I17" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -3497,8 +3592,14 @@
       <c r="D18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I18" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3508,8 +3609,14 @@
       <c r="D19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I19" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -3519,8 +3626,14 @@
       <c r="D20" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I20" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3530,8 +3643,14 @@
       <c r="D21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I21" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -3541,8 +3660,14 @@
       <c r="D22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I22" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3552,22 +3677,34 @@
       <c r="D23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I23" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I24" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -3576,14 +3713,14 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -3592,7 +3729,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -3601,7 +3738,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -3610,12 +3747,12 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -5375,7 +5512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
